--- a/files/mysql/documents/文章资讯分级表.xlsx
+++ b/files/mysql/documents/文章资讯分级表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/PycharmProjects/fProject/files/mysql/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{367EC959-D23E-3244-9BC7-50C42C597A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B356363E-5462-2E47-BFA1-551F7CBC97B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16440" xr2:uid="{472371DD-CA39-E145-9F4C-915D6E305275}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> serial_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,29 +53,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
-    <t>not null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前缀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>default 100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pri</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,98 +85,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sync_code 序列编号表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(extend base)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  订单支付表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">order_payment </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fund_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mul</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mul fori</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外键id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max=5,p=2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max=8,p=2</t>
+    <t>文章正文表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>" "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父级id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mul(外)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外检关联分级表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释+B:G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一篇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章分级表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,8 +256,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105D6271-5CA3-3D44-A13A-80933ED15A97}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -580,254 +589,304 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38" customHeight="1">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="38" customHeight="1">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="31" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" customHeight="1">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31" customHeight="1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="31" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="36" customHeight="1">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="31" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="36" customHeight="1">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="31" customHeight="1"/>
-    <row r="7" spans="1:6" ht="31" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36" customHeight="1">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="31" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="36" customHeight="1">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="36" customHeight="1">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="36" customHeight="1"/>
+    <row r="11" spans="1:6" ht="29" customHeight="1"/>
+    <row r="12" spans="1:6" ht="29" customHeight="1">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="31" customHeight="1">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="31" customHeight="1">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="31" customHeight="1">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="31" customHeight="1">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="31" customHeight="1">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="31" customHeight="1">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="31" customHeight="1">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31" customHeight="1">
       <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31" customHeight="1">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31" customHeight="1">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31" customHeight="1">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31" customHeight="1">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="31" customHeight="1"/>
-    <row r="18" ht="31" customHeight="1"/>
-    <row r="19" ht="31" customHeight="1"/>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31" customHeight="1"/>
+    <row r="22" spans="1:6" ht="31" customHeight="1"/>
+    <row r="23" spans="1:6" ht="31" customHeight="1"/>
+    <row r="24" spans="1:6" ht="31" customHeight="1"/>
+    <row r="25" spans="1:6" ht="31" customHeight="1"/>
+    <row r="26" spans="1:6" ht="31" customHeight="1"/>
+    <row r="27" spans="1:6" ht="31" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
